--- a/investimento.xlsx
+++ b/investimento.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85787C3D-2AAF-43D7-B9E0-65C8CB90C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A5796A-C6AC-46B1-82D9-6964245052AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3F3BF652-A59C-4777-81D6-B28D34163779}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3F3BF652-A59C-4777-81D6-B28D34163779}"/>
   </bookViews>
   <sheets>
     <sheet name="ap priscila" sheetId="1" r:id="rId1"/>
+    <sheet name="titular" sheetId="2" r:id="rId2"/>
+    <sheet name="informaçõe" sheetId="3" r:id="rId3"/>
+    <sheet name="notas" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="APORTE">'ap priscila'!$D$12</definedName>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Quanto investir por mês ?</t>
   </si>
@@ -81,19 +84,70 @@
   </si>
   <si>
     <t>DIVIDENDO</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Nascimento</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Titulo de eleitor</t>
+  </si>
+  <si>
+    <t>Conjuge</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>dependente</t>
+  </si>
+  <si>
+    <t>Residente exterior</t>
+  </si>
+  <si>
+    <t>Houve alterações</t>
+  </si>
+  <si>
+    <t>1 Dados do titular</t>
+  </si>
+  <si>
+    <t>preencha os dados da sua pessoa fisica abaixo</t>
+  </si>
+  <si>
+    <t>priscilla_all@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="190" formatCode="00000&quot;-&quot;000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +158,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,13 +220,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -183,13 +273,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -404,66 +509,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,33 +662,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="190" fontId="3" fillId="2" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="5" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="6">
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Neutro" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,13 +736,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>563335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>138793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -554,7 +770,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="563335" y="152400"/>
+          <a:off x="563335" y="138793"/>
           <a:ext cx="8077200" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -562,6 +778,562 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="Imagens de Lion Icon – Explore Fotografias do Stock, Vetores ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901A3036-4F36-CEA5-6930-342F5A03D74A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="447675" y="457200"/>
+          <a:ext cx="1028700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5FB304-237B-07AF-485C-BBA2DFE82AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1943100" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="3600">
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="89000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="23000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="89000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="69000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="97000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
+                <a:tileRect/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Lion</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="89000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="23000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="89000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="69000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="97000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF7DEBB-BC39-B755-D085-E11E56AF59FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="1619250"/>
+          <a:ext cx="1485900" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2400"/>
+            <a:t>Titular</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDC9A02-2C13-4E9B-AD62-B14F99B97380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="2181225"/>
+          <a:ext cx="1485900" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2400"/>
+            <a:t>Informes</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B004C570-C423-4669-AE90-576047DEF06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="2743200"/>
+          <a:ext cx="1485900" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2400"/>
+            <a:t>Notas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6B7267-AA5C-427B-AF77-A2E27600D7DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="3505200"/>
+          <a:ext cx="1485900" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Sistema</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>😁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA01F1DA-05B4-B16F-E28A-B97A6954442B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="3810000"/>
+          <a:ext cx="1762125" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>proximo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -866,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021FF992-A8A6-4CDF-97B7-E408BC31D94C}">
   <dimension ref="A6:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K10" sqref="K10:M10"/>
     </sheetView>
   </sheetViews>
@@ -1147,4 +1919,160 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F79933-5C73-485C-BF8D-C877506D8E41}">
+  <dimension ref="A3:E18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43">
+        <v>89787887</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="44">
+        <v>3383120</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D18" xr:uid="{709E0FB9-0C5E-4087-ACD5-37FA1A179DE7}">
+      <formula1>"Sim, Não"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{883A0E46-C55E-48A3-A407-C2D1814E8436}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B88878-9264-4F2E-BE0C-108C8B1A2CE0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2C41B-B277-4BB5-BC46-614259599A1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>